--- a/public/sample_uploads/valuations.xlsx
+++ b/public/sample_uploads/valuations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD0EB4D-088D-4697-BD7F-CB1C80206697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07A644D-8797-437A-B6AF-0248923053B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
-  <si>
-    <t>Instrument</t>
-  </si>
-  <si>
-    <t>Valuation Date</t>
-  </si>
-  <si>
-    <t>Valuation</t>
-  </si>
-  <si>
-    <t>Per Share Value</t>
-  </si>
-  <si>
-    <t>Portfolio Company</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Equity</t>
   </si>
@@ -49,6 +34,27 @@
   </si>
   <si>
     <t>ABC</t>
+  </si>
+  <si>
+    <t>Unlisted</t>
+  </si>
+  <si>
+    <t>Valuation Date *</t>
+  </si>
+  <si>
+    <t>Valuation *</t>
+  </si>
+  <si>
+    <t>Per Share Value *</t>
+  </si>
+  <si>
+    <t>Portfolio Company *</t>
+  </si>
+  <si>
+    <t>Category *</t>
+  </si>
+  <si>
+    <t>Sub Category *</t>
   </si>
 </sst>
 </file>
@@ -367,104 +373,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.46484375" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>210</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>44612</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>220</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="F4" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43881</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44247</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>210</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44612</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>220</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
         <v>44977</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
         <v>230</v>
       </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/valuations.xlsx
+++ b/public/sample_uploads/valuations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07A644D-8797-437A-B6AF-0248923053B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75902D6C-0F6E-4BD1-82BC-F44DC46CADB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Equity</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Sub Category *</t>
+  </si>
+  <si>
+    <t>Pan *</t>
+  </si>
+  <si>
+    <t>A11111111</t>
+  </si>
+  <si>
+    <t>B11111111</t>
   </si>
 </sst>
 </file>
@@ -373,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -384,12 +393,12 @@
     <col min="1" max="1" width="13.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.46484375" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.46484375" customWidth="1"/>
+    <col min="7" max="7" width="12.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -403,13 +412,16 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>43881</v>
       </c>
@@ -423,13 +435,16 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44247</v>
       </c>
@@ -443,13 +458,16 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44612</v>
       </c>
@@ -463,13 +481,16 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44977</v>
       </c>
@@ -483,9 +504,12 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>0</v>
       </c>
     </row>

--- a/public/sample_uploads/valuations.xlsx
+++ b/public/sample_uploads/valuations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75902D6C-0F6E-4BD1-82BC-F44DC46CADB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97634B84-CBF3-44AA-89AD-C9E3130B1C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Equity</t>
   </si>
@@ -57,13 +57,7 @@
     <t>Sub Category *</t>
   </si>
   <si>
-    <t>Pan *</t>
-  </si>
-  <si>
-    <t>A11111111</t>
-  </si>
-  <si>
-    <t>B11111111</t>
+    <t>Pan</t>
   </si>
 </sst>
 </file>
@@ -385,7 +379,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -426,7 +420,7 @@
         <v>43881</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -434,8 +428,8 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
+      <c r="E2">
+        <v>123</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -449,16 +443,13 @@
         <v>44247</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C3">
         <v>210</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -472,7 +463,7 @@
         <v>44612</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="C4">
         <v>220</v>
@@ -480,8 +471,8 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
+      <c r="E4">
+        <v>234</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -495,16 +486,13 @@
         <v>44977</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="C5">
         <v>230</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>

--- a/public/sample_uploads/valuations.xlsx
+++ b/public/sample_uploads/valuations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97634B84-CBF3-44AA-89AD-C9E3130B1C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DA5CB9-454F-4E21-9981-E2E720EA2FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Equity</t>
   </si>
@@ -58,16 +58,33 @@
   </si>
   <si>
     <t>Pan</t>
+  </si>
+  <si>
+    <t>Primary Email *</t>
+  </si>
+  <si>
+    <t>emp1@xyz.com</t>
+  </si>
+  <si>
+    <t>emp1@abc.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,14 +107,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -376,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -387,12 +407,12 @@
     <col min="1" max="1" width="13.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.46484375" customWidth="1"/>
-    <col min="7" max="7" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.46484375" customWidth="1"/>
+    <col min="8" max="8" width="12.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -409,13 +429,16 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>43881</v>
       </c>
@@ -431,14 +454,17 @@
       <c r="E2">
         <v>123</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44247</v>
       </c>
@@ -451,14 +477,14 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44612</v>
       </c>
@@ -474,14 +500,17 @@
       <c r="E4">
         <v>234</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44977</v>
       </c>
@@ -494,15 +523,19 @@
       <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{1F4417EE-CC3C-441F-94C4-B8E84079279E}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{AF03CBA6-8D0A-4417-AE43-03D59ACFDE06}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/public/sample_uploads/valuations.xlsx
+++ b/public/sample_uploads/valuations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DA5CB9-454F-4E21-9981-E2E720EA2FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E003FF-8A0E-4E91-B386-1F73F4AD5C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Equity</t>
   </si>
   <si>
-    <t>XYZ</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
     <t>Unlisted</t>
   </si>
   <si>
@@ -57,34 +51,20 @@
     <t>Sub Category *</t>
   </si>
   <si>
-    <t>Pan</t>
-  </si>
-  <si>
-    <t>Primary Email *</t>
-  </si>
-  <si>
-    <t>emp1@xyz.com</t>
-  </si>
-  <si>
-    <t>emp1@abc.com</t>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>MSFT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,17 +87,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -407,38 +384,32 @@
     <col min="1" max="1" width="13.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.46484375" customWidth="1"/>
-    <col min="8" max="8" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.46484375" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>43881</v>
       </c>
@@ -449,22 +420,16 @@
         <v>200</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>123</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44247</v>
       </c>
@@ -475,16 +440,16 @@
         <v>210</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44612</v>
       </c>
@@ -495,22 +460,16 @@
         <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>234</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44977</v>
       </c>
@@ -521,21 +480,17 @@
         <v>230</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{1F4417EE-CC3C-441F-94C4-B8E84079279E}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{AF03CBA6-8D0A-4417-AE43-03D59ACFDE06}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/sample_uploads/valuations.xlsx
+++ b/public/sample_uploads/valuations.xlsx
@@ -1,31 +1,198 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseem Karmali\Desktop\bulk files with notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E003FF-8A0E-4E91-B386-1F73F4AD5C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA6CCEC-5D77-474B-845E-B3D4BE91921E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C0EB9A17-A822-4BD6-A1E5-E57BD80D6247}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory in dd/mm/yyyy format</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{EA7B4D0F-5784-4B6A-A70B-755D2DC97F06}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory
+-Total valuation of the company if available, else specify 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B4FC224D-E644-4C4B-A559-0C8A6DF2A1A4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory
+-Will be used to compute FMV of the company</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{6313145B-7152-41C8-85F3-89722568ADA8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mandatory: Portfolio Company name as recorded on CapHive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{968BA5B3-6E65-46F5-84BC-0CC23CF63539}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory
+-As per SEBI reporting requirements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{E999AD17-51E3-4FD3-B3FD-5EB0FE4B28A5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+-Mandatory
+-As per SEBI reporting requirements</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Equity</t>
   </si>
@@ -55,19 +222,62 @@
   </si>
   <si>
     <t>MSFT</t>
+  </si>
+  <si>
+    <t>2/20/2020</t>
+  </si>
+  <si>
+    <t>2/20/2021</t>
+  </si>
+  <si>
+    <t>2/20/2022</t>
+  </si>
+  <si>
+    <t>2/20/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,7 +288,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,13 +296,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,125 +593,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.46484375" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.9296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>43881</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
         <v>1000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>200</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>44247</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
         <v>1000</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>210</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>44612</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
         <v>2000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>220</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>44977</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
         <v>2000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>230</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/sample_uploads/valuations.xlsx
+++ b/public/sample_uploads/valuations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseem Karmali\Desktop\bulk files with notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA6CCEC-5D77-474B-845E-B3D4BE91921E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1463140-C383-47C6-9EEB-8B633C0719B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Equity</t>
   </si>
@@ -222,18 +222,6 @@
   </si>
   <si>
     <t>MSFT</t>
-  </si>
-  <si>
-    <t>2/20/2020</t>
-  </si>
-  <si>
-    <t>2/20/2021</t>
-  </si>
-  <si>
-    <t>2/20/2022</t>
-  </si>
-  <si>
-    <t>2/20/2023</t>
   </si>
 </sst>
 </file>
@@ -313,7 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,7 +585,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -632,8 +620,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
+      <c r="A2" s="3">
+        <v>43881</v>
       </c>
       <c r="B2" s="2">
         <v>1000</v>
@@ -652,8 +640,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
+      <c r="A3" s="3">
+        <v>43881</v>
       </c>
       <c r="B3" s="2">
         <v>1000</v>
@@ -672,8 +660,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
+      <c r="A4" s="3">
+        <v>43881</v>
       </c>
       <c r="B4" s="2">
         <v>2000</v>
@@ -692,8 +680,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
+      <c r="A5" s="3">
+        <v>43881</v>
       </c>
       <c r="B5" s="2">
         <v>2000</v>

--- a/public/sample_uploads/valuations.xlsx
+++ b/public/sample_uploads/valuations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1463140-C383-47C6-9EEB-8B633C0719B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F560E5BB-53A3-4495-98F8-49C7000BBC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,32 +158,7 @@
           </rPr>
           <t xml:space="preserve">
 -Mandatory
--As per SEBI reporting requirements</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{E999AD17-51E3-4FD3-B3FD-5EB0FE4B28A5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
--Mandatory
--As per SEBI reporting requirements</t>
+-This is the instrument of the portfolio company being valued</t>
         </r>
       </text>
     </comment>
@@ -192,13 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>Unlisted</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Valuation Date *</t>
   </si>
@@ -212,16 +181,16 @@
     <t>Portfolio Company *</t>
   </si>
   <si>
-    <t>Category *</t>
-  </si>
-  <si>
-    <t>Sub Category *</t>
-  </si>
-  <si>
     <t>Apple</t>
   </si>
   <si>
     <t>MSFT</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Common Stock</t>
   </si>
 </sst>
 </file>
@@ -582,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -595,31 +564,27 @@
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.73046875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="2"/>
+    <col min="6" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>43881</v>
       </c>
@@ -630,16 +595,13 @@
         <v>200</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>43881</v>
       </c>
@@ -650,16 +612,13 @@
         <v>210</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>43881</v>
       </c>
@@ -670,16 +629,13 @@
         <v>220</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>43881</v>
       </c>
@@ -690,13 +646,10 @@
         <v>230</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/valuations.xlsx
+++ b/public/sample_uploads/valuations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F560E5BB-53A3-4495-98F8-49C7000BBC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CC62D9-704F-4F7D-9EDD-22A0C8CCE12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -603,7 +603,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>43881</v>
+        <v>44247</v>
       </c>
       <c r="B3" s="2">
         <v>1000</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>43881</v>
+        <v>44247</v>
       </c>
       <c r="B5" s="2">
         <v>2000</v>
